--- a/bench.xlsx
+++ b/bench.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2265724\Documents\GitHub\Image-Processing-Global-Illumination-and-Edge-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1167244D-2E69-44E4-A0EB-91B30A9C15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85452EEE-1140-415B-AA00-E1D6680C8C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bench" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,6 +584,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linearized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -814,6 +850,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -876,6 +967,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> render reciprocal</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -984,6 +1135,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1/x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1122,6 +1298,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1183,6 +1414,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> render</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2392,16 +2683,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2428,16 +2719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2761,11 +3052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
